--- a/AgriMonitor/src/main/resources/static/excel/土壤监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/土壤监测数据导入模板.xlsx
@@ -489,10 +489,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刚察县</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>刚察县土壤监测数据导入模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -875,6 +871,10 @@
   </si>
   <si>
     <t>年份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙柳河镇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1082,11 +1082,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,6 +1091,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1368,7 +1368,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1379,12 +1379,12 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="19"/>
     <col min="2" max="2" width="9" style="15"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="5" width="15.25" customWidth="1"/>
@@ -1396,26 +1396,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
@@ -1462,11 +1462,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <v>2018</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>31.060525563124557</v>
@@ -1497,11 +1497,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="20">
+      <c r="A5" s="17">
         <v>2018</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>31.258309876954748</v>
@@ -1532,11 +1532,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>33.344069938391627</v>
@@ -1567,11 +1567,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="20">
+      <c r="A7" s="17">
         <v>2018</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>28.270869844536428</v>
@@ -1602,11 +1602,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="20">
+      <c r="A8" s="17">
         <v>2018</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>27.698020158985383</v>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <v>2018</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1672,11 +1672,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="20">
+      <c r="A10" s="17">
         <v>2018</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>41.880764939199722</v>
@@ -1707,11 +1707,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="20">
+      <c r="A11" s="17">
         <v>2018</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
         <v>38.668151052042383</v>
@@ -1742,11 +1742,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="20">
+      <c r="A12" s="17">
         <v>2018</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>36.882382682614463</v>
@@ -1777,11 +1777,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="20">
+      <c r="A13" s="17">
         <v>2018</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
         <v>18.740698636788874</v>
@@ -1812,11 +1812,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="20">
+      <c r="A14" s="17">
         <v>2018</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1">
         <v>40.845913674988708</v>
@@ -1847,11 +1847,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="20">
+      <c r="A15" s="17">
         <v>2018</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>39.481423092816044</v>
@@ -1882,11 +1882,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="20">
+      <c r="A16" s="17">
         <v>2018</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>40.590486991666445</v>
@@ -1917,11 +1917,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="20">
+      <c r="A17" s="17">
         <v>2018</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>31.663251535765376</v>
@@ -1952,11 +1952,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="20">
+      <c r="A18" s="17">
         <v>2018</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>19.862888210780262</v>
@@ -1987,7 +1987,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="20">
+      <c r="A19" s="17">
         <v>2018</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="20">
+      <c r="A20" s="17">
         <v>2018</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="20">
+      <c r="A21" s="17">
         <v>2018</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="20">
+      <c r="A22" s="17">
         <v>2018</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="20">
+      <c r="A23" s="17">
         <v>2018</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="20">
+      <c r="A24" s="17">
         <v>2018</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="20">
+      <c r="A25" s="17">
         <v>2018</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -2232,7 +2232,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="20">
+      <c r="A26" s="17">
         <v>2018</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2267,7 +2267,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="20">
+      <c r="A27" s="17">
         <v>2018</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -2302,7 +2302,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="20">
+      <c r="A28" s="17">
         <v>2018</v>
       </c>
       <c r="B28" s="13" t="s">

--- a/AgriMonitor/src/main/resources/static/excel/土壤监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/土壤监测数据导入模板.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeing\eclipse-workspace\AgriMonitor1.0\AgriMonitor\AgriMonitor\src\main\resources\static\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC2584D-B570-474D-AB54-91009107B50A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>pH</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -485,10 +491,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>所属乡镇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>刚察县土壤监测数据导入模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -871,23 +873,19 @@
   </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙柳河镇</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,18 +973,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1036,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,22 +1048,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,13 +1055,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1096,6 +1066,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1368,24 +1354,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
@@ -1395,793 +1381,812 @@
     <col min="11" max="11" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="C3" s="1">
+        <v>31.060525563124557</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.7951859987652701</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.7771982116244409</v>
+      </c>
+      <c r="F3" s="3">
+        <v>23.52779306549257</v>
+      </c>
+      <c r="G3" s="2">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8.41</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="5">
+        <v>161.70000000000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>601.69635000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>31.060525563124557</v>
+        <v>31.258309876954748</v>
       </c>
       <c r="D4" s="1">
-        <v>2.7951859987652701</v>
+        <v>2.5100410044332477</v>
       </c>
       <c r="E4" s="2">
-        <v>1.7771982116244409</v>
+        <v>1.06929955290611</v>
       </c>
       <c r="F4" s="3">
-        <v>23.52779306549257</v>
+        <v>15.27242707760044</v>
       </c>
       <c r="G4" s="2">
-        <v>19.940000000000001</v>
+        <v>20.12</v>
       </c>
       <c r="H4" s="4">
-        <v>8.41</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I4" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="J4" s="5">
+        <v>153.6</v>
+      </c>
+      <c r="K4" s="6">
+        <v>592.72020000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33.344069938391627</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.6226184136476367</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.3077496274217584</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.2184920198128797</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18.23</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="J5" s="5">
+        <v>95</v>
+      </c>
+      <c r="K5" s="6">
+        <v>511.64055000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>28.270869844536428</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.211602019057239</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0283159463487332</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12.795817281232802</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="J6" s="5">
+        <v>76.8</v>
+      </c>
+      <c r="K6" s="6">
+        <v>628.1833499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27.698020158985383</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.9314872815657544</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.1438152011922502</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.3659878921298843</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8.58</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.01</v>
       </c>
-      <c r="J4" s="5">
-        <v>161.70000000000002</v>
-      </c>
-      <c r="K4" s="6">
-        <v>601.69635000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
-        <v>31.258309876954748</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.5100410044332477</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.06929955290611</v>
-      </c>
-      <c r="F5" s="3">
-        <v>15.27242707760044</v>
-      </c>
-      <c r="G5" s="2">
-        <v>20.12</v>
-      </c>
-      <c r="H5" s="4">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="J5" s="5">
-        <v>153.6</v>
-      </c>
-      <c r="K5" s="6">
-        <v>592.72020000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1">
-        <v>33.344069938391627</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.6226184136476367</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.3077496274217584</v>
-      </c>
-      <c r="F6" s="3">
-        <v>9.2184920198128797</v>
-      </c>
-      <c r="G6" s="2">
-        <v>18.23</v>
-      </c>
-      <c r="H6" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="J6" s="5">
-        <v>95</v>
-      </c>
-      <c r="K6" s="6">
-        <v>511.64055000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1">
-        <v>28.270869844536428</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.211602019057239</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0283159463487332</v>
-      </c>
-      <c r="F7" s="3">
-        <v>12.795817281232802</v>
-      </c>
-      <c r="G7" s="2">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="H7" s="4">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.05</v>
-      </c>
       <c r="J7" s="5">
-        <v>76.8</v>
+        <v>67.5</v>
       </c>
       <c r="K7" s="6">
-        <v>628.1833499999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>27</v>
+        <v>678.80295000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>27.698020158985383</v>
+        <v>26.007274226261732</v>
       </c>
       <c r="D8" s="1">
-        <v>2.9314872815657544</v>
+        <v>3.3234815843511494</v>
       </c>
       <c r="E8" s="2">
-        <v>1.1438152011922502</v>
+        <v>1.6020864381520117</v>
       </c>
       <c r="F8" s="3">
-        <v>5.3659878921298843</v>
+        <v>8.9433131535498074</v>
       </c>
       <c r="G8" s="2">
-        <v>18.829999999999998</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="H8" s="4">
-        <v>8.58</v>
+        <v>8.57</v>
       </c>
       <c r="I8" s="4">
         <v>0.01</v>
       </c>
       <c r="J8" s="5">
-        <v>67.5</v>
+        <v>61.1</v>
       </c>
       <c r="K8" s="6">
-        <v>678.80295000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
+        <v>842.58089999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>26.007274226261732</v>
+        <v>41.880764939199722</v>
       </c>
       <c r="D9" s="1">
-        <v>3.3234815843511494</v>
+        <v>3.0200300255699468</v>
       </c>
       <c r="E9" s="2">
-        <v>1.6020864381520117</v>
+        <v>1.3859910581222055</v>
       </c>
       <c r="F9" s="3">
-        <v>8.9433131535498074</v>
+        <v>4.5404512933406718</v>
       </c>
       <c r="G9" s="2">
-        <v>17.670000000000002</v>
+        <v>19.61</v>
       </c>
       <c r="H9" s="4">
-        <v>8.57</v>
+        <v>8.23</v>
       </c>
       <c r="I9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="J9" s="5">
+        <v>103.3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>695.43089999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>38.668151052042383</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.7171658124755673</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.87928464977645304</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.7886626307099616</v>
+      </c>
+      <c r="G10" s="2">
+        <v>19.57</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8.09</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.01</v>
       </c>
-      <c r="J9" s="5">
-        <v>61.1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>842.58089999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1">
-        <v>41.880764939199722</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.0200300255699468</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.3859910581222055</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4.5404512933406718</v>
-      </c>
-      <c r="G10" s="2">
-        <v>19.61</v>
-      </c>
-      <c r="H10" s="4">
-        <v>8.23</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.02</v>
-      </c>
       <c r="J10" s="5">
-        <v>103.3</v>
+        <v>127.30000000000001</v>
       </c>
       <c r="K10" s="6">
-        <v>695.43089999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>1064.9245500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="1">
-        <v>38.668151052042383</v>
+        <v>36.882382682614463</v>
       </c>
       <c r="D11" s="1">
-        <v>3.7171658124755673</v>
+        <v>3.2395869592740945</v>
       </c>
       <c r="E11" s="2">
-        <v>0.87928464977645304</v>
+        <v>0.79359165424739186</v>
       </c>
       <c r="F11" s="3">
-        <v>1.7886626307099616</v>
+        <v>11.970280682443587</v>
       </c>
       <c r="G11" s="2">
-        <v>19.57</v>
+        <v>19.66</v>
       </c>
       <c r="H11" s="4">
-        <v>8.09</v>
+        <v>8.07</v>
       </c>
       <c r="I11" s="4">
         <v>0.01</v>
       </c>
       <c r="J11" s="5">
-        <v>127.30000000000001</v>
+        <v>214.7</v>
       </c>
       <c r="K11" s="6">
-        <v>1064.9245500000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>917.77454999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="1">
-        <v>36.882382682614463</v>
+        <v>18.740698636788874</v>
       </c>
       <c r="D12" s="1">
-        <v>3.2395869592740945</v>
+        <v>3.1249568357049524</v>
       </c>
       <c r="E12" s="2">
-        <v>0.79359165424739186</v>
+        <v>1.1065573770491801</v>
       </c>
       <c r="F12" s="3">
-        <v>11.970280682443587</v>
+        <v>11.695101816180518</v>
       </c>
       <c r="G12" s="2">
-        <v>19.66</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="H12" s="4">
-        <v>8.07</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>122.10000000000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>597.87045000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40.845913674988708</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.5458193083516045</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.3897168405365126</v>
+      </c>
+      <c r="F13" s="3">
+        <v>22.151898734177216</v>
+      </c>
+      <c r="G13" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.01</v>
       </c>
-      <c r="J12" s="5">
-        <v>214.7</v>
-      </c>
-      <c r="K12" s="6">
-        <v>917.77454999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1">
-        <v>18.740698636788874</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.1249568357049524</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.1065573770491801</v>
-      </c>
-      <c r="F13" s="3">
-        <v>11.695101816180518</v>
-      </c>
-      <c r="G13" s="2">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="H13" s="4">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
       <c r="J13" s="5">
-        <v>122.10000000000001</v>
+        <v>152.10000000000002</v>
       </c>
       <c r="K13" s="6">
-        <v>597.87045000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>33</v>
+        <v>989.28944999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="1">
-        <v>40.845913674988708</v>
+        <v>39.481423092816044</v>
       </c>
       <c r="D14" s="1">
-        <v>3.5458193083516045</v>
+        <v>2.9501089169676038</v>
       </c>
       <c r="E14" s="2">
-        <v>1.3897168405365126</v>
+        <v>1.1736214605067063</v>
       </c>
       <c r="F14" s="3">
-        <v>22.151898734177216</v>
+        <v>9.7688497523390225</v>
       </c>
       <c r="G14" s="2">
-        <v>19.2</v>
+        <v>18.73</v>
       </c>
       <c r="H14" s="4">
-        <v>7.79</v>
+        <v>7.67</v>
       </c>
       <c r="I14" s="4">
         <v>0.01</v>
       </c>
       <c r="J14" s="5">
-        <v>152.10000000000002</v>
+        <v>43.3</v>
       </c>
       <c r="K14" s="6">
-        <v>989.28944999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>32</v>
+        <v>892.46474999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="1">
-        <v>39.481423092816044</v>
+        <v>40.590486991666445</v>
       </c>
       <c r="D15" s="1">
-        <v>2.9501089169676038</v>
+        <v>3.8755029018658447</v>
       </c>
       <c r="E15" s="2">
-        <v>1.1736214605067063</v>
+        <v>0.97988077496274217</v>
       </c>
       <c r="F15" s="3">
-        <v>9.7688497523390225</v>
+        <v>8.3929554210236645</v>
       </c>
       <c r="G15" s="2">
-        <v>18.73</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="H15" s="4">
-        <v>7.67</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="I15" s="4">
         <v>0.01</v>
       </c>
       <c r="J15" s="5">
-        <v>43.3</v>
+        <v>151.1</v>
       </c>
       <c r="K15" s="6">
-        <v>892.46474999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>31</v>
+        <v>938.08124999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="1">
-        <v>40.590486991666445</v>
+        <v>31.663251535765376</v>
       </c>
       <c r="D16" s="1">
-        <v>3.8755029018658447</v>
+        <v>3.6504695466598203</v>
       </c>
       <c r="E16" s="2">
-        <v>0.97988077496274217</v>
+        <v>0.75260804769001488</v>
       </c>
       <c r="F16" s="3">
-        <v>8.3929554210236645</v>
+        <v>7.2922399559713815</v>
       </c>
       <c r="G16" s="2">
-        <v>19.059999999999999</v>
+        <v>17.86</v>
       </c>
       <c r="H16" s="4">
-        <v>8.2899999999999991</v>
+        <v>8.35</v>
       </c>
       <c r="I16" s="4">
         <v>0.01</v>
       </c>
       <c r="J16" s="5">
-        <v>151.1</v>
+        <v>100.39999999999999</v>
       </c>
       <c r="K16" s="6">
-        <v>938.08124999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>30</v>
+        <v>795.19860000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>31.663251535765376</v>
+        <v>19.862888210780262</v>
       </c>
       <c r="D17" s="1">
-        <v>3.6504695466598203</v>
+        <v>2.6352533708722485</v>
       </c>
       <c r="E17" s="2">
-        <v>0.75260804769001488</v>
+        <v>0.97988077496274217</v>
       </c>
       <c r="F17" s="3">
-        <v>7.2922399559713815</v>
+        <v>5.3659878921298843</v>
       </c>
       <c r="G17" s="2">
-        <v>17.86</v>
+        <v>15.91</v>
       </c>
       <c r="H17" s="4">
-        <v>8.35</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="I17" s="4">
         <v>0.01</v>
       </c>
       <c r="J17" s="5">
-        <v>100.39999999999999</v>
+        <v>119.7</v>
       </c>
       <c r="K17" s="6">
-        <v>795.19860000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
+        <v>739.42875000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>19.862888210780262</v>
+        <v>40.842382300386824</v>
       </c>
       <c r="D18" s="1">
-        <v>2.6352533708722485</v>
+        <v>3.7559781254516813</v>
       </c>
       <c r="E18" s="2">
-        <v>0.97988077496274217</v>
+        <v>1.3263785394932934</v>
       </c>
       <c r="F18" s="3">
-        <v>5.3659878921298843</v>
+        <v>8.9433131535498074</v>
       </c>
       <c r="G18" s="2">
-        <v>15.91</v>
+        <v>17.86</v>
       </c>
       <c r="H18" s="4">
-        <v>8.2100000000000009</v>
+        <v>8.25</v>
       </c>
       <c r="I18" s="4">
         <v>0.01</v>
       </c>
       <c r="J18" s="5">
-        <v>119.7</v>
+        <v>168.4</v>
       </c>
       <c r="K18" s="6">
-        <v>739.42875000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>2</v>
+        <v>696.75524999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>40.842382300386824</v>
+        <v>49.863467355863406</v>
       </c>
       <c r="D19" s="1">
-        <v>3.7559781254516813</v>
+        <v>3.901284907061326</v>
       </c>
       <c r="E19" s="2">
-        <v>1.3263785394932934</v>
+        <v>1.5760059612518627</v>
       </c>
       <c r="F19" s="3">
-        <v>8.9433131535498074</v>
+        <v>7.8425976884975244</v>
       </c>
       <c r="G19" s="2">
-        <v>17.86</v>
+        <v>17.12</v>
       </c>
       <c r="H19" s="4">
-        <v>8.25</v>
+        <v>8.43</v>
       </c>
       <c r="I19" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>168.4</v>
+        <v>83.9</v>
       </c>
       <c r="K19" s="6">
-        <v>696.75524999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>3</v>
+        <v>697.19670000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>49.863467355863406</v>
+        <v>33.406615087585799</v>
       </c>
       <c r="D20" s="1">
-        <v>3.901284907061326</v>
+        <v>2.9028143221366545</v>
       </c>
       <c r="E20" s="2">
-        <v>1.5760059612518627</v>
+        <v>1.2406855439642324</v>
       </c>
       <c r="F20" s="3">
-        <v>7.8425976884975244</v>
+        <v>8.117776554760594</v>
       </c>
       <c r="G20" s="2">
-        <v>17.12</v>
+        <v>17.5</v>
       </c>
       <c r="H20" s="4">
-        <v>8.43</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>83.9</v>
+        <v>100.39999999999999</v>
       </c>
       <c r="K20" s="6">
-        <v>697.19670000000008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>4</v>
+        <v>781.66079999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>33.406615087585799</v>
+        <v>46.235215125130452</v>
       </c>
       <c r="D21" s="1">
-        <v>2.9028143221366545</v>
+        <v>2.8573703445777805</v>
       </c>
       <c r="E21" s="2">
-        <v>1.2406855439642324</v>
+        <v>1.2108792846497765</v>
       </c>
       <c r="F21" s="3">
-        <v>8.117776554760594</v>
+        <v>8.9433131535498074</v>
       </c>
       <c r="G21" s="2">
-        <v>17.5</v>
+        <v>18.73</v>
       </c>
       <c r="H21" s="4">
-        <v>8.4600000000000009</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>100.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="K21" s="6">
-        <v>781.66079999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>5</v>
+        <v>759.88260000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>46.235215125130452</v>
+        <v>43.43662362068801</v>
       </c>
       <c r="D22" s="1">
-        <v>2.8573703445777805</v>
+        <v>4.5109962857511094</v>
       </c>
       <c r="E22" s="2">
-        <v>1.2108792846497765</v>
+        <v>1.1736214605067063</v>
       </c>
       <c r="F22" s="3">
-        <v>8.9433131535498074</v>
+        <v>4.8156301596037423</v>
       </c>
       <c r="G22" s="2">
-        <v>18.73</v>
+        <v>17.02</v>
       </c>
       <c r="H22" s="4">
-        <v>8.3000000000000007</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>96.7</v>
+        <v>99.399999999999991</v>
       </c>
       <c r="K22" s="6">
-        <v>759.88260000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>6</v>
+        <v>714.26610000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="1">
-        <v>43.43662362068801</v>
+        <v>40.508042113283295</v>
       </c>
       <c r="D23" s="1">
-        <v>4.5109962857511094</v>
+        <v>4.1747788426602757</v>
       </c>
       <c r="E23" s="2">
-        <v>1.1736214605067063</v>
+        <v>1.4157973174366616</v>
       </c>
       <c r="F23" s="3">
-        <v>4.8156301596037423</v>
+        <v>5.0908090258668128</v>
       </c>
       <c r="G23" s="2">
-        <v>17.02</v>
+        <v>18.09</v>
       </c>
       <c r="H23" s="4">
-        <v>8.1300000000000008</v>
+        <v>7.93</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J23" s="5">
-        <v>99.399999999999991</v>
+        <v>66.2</v>
       </c>
       <c r="K23" s="6">
-        <v>714.26610000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>7</v>
+        <v>623.76885000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>40.508042113283295</v>
+        <v>33.251320459068168</v>
       </c>
       <c r="D24" s="1">
-        <v>4.1747788426602757</v>
+        <v>1.8554384338122885</v>
       </c>
       <c r="E24" s="2">
-        <v>1.4157973174366616</v>
+        <v>1.3897168405365126</v>
       </c>
       <c r="F24" s="3">
-        <v>5.0908090258668128</v>
+        <v>5.3659878921298843</v>
       </c>
       <c r="G24" s="2">
-        <v>18.09</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="H24" s="4">
         <v>7.93</v>
@@ -2190,149 +2195,114 @@
         <v>0.01</v>
       </c>
       <c r="J24" s="5">
-        <v>66.2</v>
+        <v>98.9</v>
       </c>
       <c r="K24" s="6">
-        <v>623.76885000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>8</v>
+        <v>495.01260000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C25" s="1">
-        <v>33.251320459068168</v>
+        <v>31.186595277643178</v>
       </c>
       <c r="D25" s="1">
-        <v>1.8554384338122885</v>
+        <v>4.2690128619258942</v>
       </c>
       <c r="E25" s="2">
-        <v>1.3897168405365126</v>
+        <v>0.99478390461997013</v>
       </c>
       <c r="F25" s="3">
-        <v>5.3659878921298843</v>
+        <v>5.0908090258668128</v>
       </c>
       <c r="G25" s="2">
-        <v>17.579999999999998</v>
+        <v>17.3</v>
       </c>
       <c r="H25" s="4">
-        <v>7.93</v>
+        <v>8.26</v>
       </c>
       <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>125.60000000000001</v>
+      </c>
+      <c r="K25" s="6">
+        <v>596.54610000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>36.642151725650379</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.968879666411627</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.4232488822652756</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10.594386351128234</v>
+      </c>
+      <c r="G26" s="2">
+        <v>19.43</v>
+      </c>
+      <c r="H26" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="I26" s="4">
         <v>0.01</v>
       </c>
-      <c r="J25" s="5">
-        <v>98.9</v>
-      </c>
-      <c r="K25" s="6">
-        <v>495.01260000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1">
-        <v>31.186595277643178</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4.2690128619258942</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.99478390461997013</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5.0908090258668128</v>
-      </c>
-      <c r="G26" s="2">
-        <v>17.3</v>
-      </c>
-      <c r="H26" s="4">
-        <v>8.26</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="J26" s="5">
+        <v>208.6</v>
+      </c>
+      <c r="K26" s="6">
+        <v>794.31569999999988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>32.057893702529384</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.9971469639746311</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.6020864381520117</v>
+      </c>
+      <c r="F27" s="3">
+        <v>11.970280682443587</v>
+      </c>
+      <c r="G27" s="2">
+        <v>19.52</v>
+      </c>
+      <c r="H27" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="5">
-        <v>125.60000000000001</v>
-      </c>
-      <c r="K26" s="6">
-        <v>596.54610000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>36.642151725650379</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2.968879666411627</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.4232488822652756</v>
-      </c>
-      <c r="F27" s="3">
-        <v>10.594386351128234</v>
-      </c>
-      <c r="G27" s="2">
-        <v>19.43</v>
-      </c>
-      <c r="H27" s="4">
-        <v>8.11</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.01</v>
-      </c>
       <c r="J27" s="5">
-        <v>208.6</v>
+        <v>165.10000000000002</v>
       </c>
       <c r="K27" s="6">
-        <v>794.31569999999988</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="17">
-        <v>2018</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1">
-        <v>32.057893702529384</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2.9971469639746311</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1.6020864381520117</v>
-      </c>
-      <c r="F28" s="3">
-        <v>11.970280682443587</v>
-      </c>
-      <c r="G28" s="2">
-        <v>19.52</v>
-      </c>
-      <c r="H28" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <v>165.10000000000002</v>
-      </c>
-      <c r="K28" s="6">
         <v>851.11559999999997</v>
       </c>
     </row>

--- a/AgriMonitor/src/main/resources/static/excel/土壤监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/土壤监测数据导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeing\eclipse-workspace\AgriMonitor1.0\AgriMonitor\AgriMonitor\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeing\eclipse-workspace\Agri\AgriMonitor\AgriMonitor\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC2584D-B570-474D-AB54-91009107B50A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AA89AA-E367-4108-93F9-7AA8A9017518}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>pH</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1061,11 +1061,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,6 +1077,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1382,52 +1382,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2312,6 +2312,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>